--- a/excel/target_code/3.xlsx
+++ b/excel/target_code/3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>code</t>
   </si>
@@ -29,6 +29,30 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
   <si>
     <t xml:space="preserve">まず、ディープラーニングのことをお話する前に、AI（artificial intelligence、人工知能）とはどういうものかの説明が必要ですね。
@@ -39,6 +63,76 @@
   </si>
   <si>
     <t xml:space="preserve">今までは、ルールベースや統計処理の中でしかAIを活用できなかったから、100%の精度を要求するなら、最後の最後は人間が見て、チェックする必要がありました。しかしディープラーニングを使ったら、今まで人手が必要だったところが限りなく少なくなる可能性があるため、色んな広がりが考えられます。 </t>
+  </si>
+  <si>
+    <t>単一のExcelブック内に，大量のワークシートが存在するとする。
+シートがあまりにも多すぎて，ブックのサイズが何メガにも膨れ上がる。
+そして，「もはや１ファイルで管理しきれない。
+シートごとに別ファイルに分けよう」となる。
+そういう場合，各シートを
+「自動的に個別のファイルに分けてくれる」ツールがあると便利だ。
+１００シートあれば，１００個のファイルに分割してくれる・・・というわけ。
+下記のバッチで，すぐに実行できる。
+以下のコードをメモ帳にコピペし，「シートごとに分割.bat」で保存。
+そして，シートごとに分割したいExcelファイルを
+このバッチにドロップすればよい。</t>
+  </si>
+  <si>
+    <t>このソースは，MS-DOS（コマンドプロンプト）バッチの中に，WSH/JScriptのコードを埋め込んで記述してある。
+Excelファイルをドロップすると，バッチの存在するフォルダ内に，
+各シートごとに分割されたエクセルが一斉に生成・保存される。</t>
+  </si>
+  <si>
+    <t>「クヨクヨしなくていいんだよ！　うつを克服する７つの鍵」，花風社，2002。
+本のオビには『「うつ」と「不安」の克服法』とある。
+ネガティブ思考で，なんでも物事を暗く考える人がいる。
+また，とにかく白黒つけたがって，いつも物事を悪く決めつける人もいる。
+そういう人は，仕事の激務に追われているうちにストレスがたまり，
+うつ病になるケースが多い。
+どうすれば，ネガティブ思考を捨てられるのか？
+そもそも，ネガティブ思考の正体とは何なのか？そうなるメカニズムは？
+どういう習慣を持てば，
+不安や取り越し苦労・心配症のない人格に変われるのか。
+この本はヒントを与える。</t>
+  </si>
+  <si>
+    <t>過去，幼いころの失敗体験など
+　　　　　（「不安な子ども」の形成）
+　　　　　　　　　　↓
+　　　　　　　　　　↓
+　　　もう二度と恥ずかしい思いをしたくない，
+　　　　完璧でなければならないという思い
+　　　　　　　　（完璧主義）
+　　　　　　　　　　↓
+　　　　　　　　　　↓
+　　　「コントロール意識」の異常な強化→→→↓
+　　　　　　　　　　↓　　　　　　　　　　　↓
+　　　　　　　　　　↓　　　　　　　　　　　↓
+　　　　想像の中で，架空のストレスを　　　　↓
+　　　　　コントロールしようとする　　　　　↓
+　　　　　　　（取り越し苦労。　　　　白黒つけたがり思考
+　　　　　「不安な子ども」が騒ぐ）　　　　　↓
+　　　　　　　　　　↓　　　　　　　　　黒ばかりで悲観
+　　　うまくコントロールできないので
+　　　　　エネルギーを使い果たす
+　　　　　　　　　　↓
+　　　　　　　　　　↓
+　　　　　　　　　うつ状態，
+　　　　コントロールしなくて済むように逃避</t>
+  </si>
+  <si>
+    <t>この苦しい状態を終わらせるには，頭の中の世界から抜け出して，
+現実を見る事が大切。
+典型的な「想像上のストレス」には、例えば下記のようなものがある。
+あの人は私を悪く思っているに違いない。きっとそうだ。絶対嫌われて、嫌に思われているに決まっている…。
+自分が努力している事は、きっと失敗する。うまくゆかないに違いない。自分の将来は暗いに決まっている…。
+頭の中の世界で、空想上の仮定に基づいて、いつまでも苦しみ続ける。
+空想なので、当然だれも止められないし、
+そもそも起きてもいない事なので、解決することもありえない。
+こうして、うつになるのである。</t>
+  </si>
+  <si>
+    <t>現在、北朝鮮のミサイル実験で日本に限らず、世界の情勢が緊迫した状況となっている。北朝鮮のミサイルは日本列島を大きく飛び越し、アメリカ本土をめがけて発射されている。アメリカのトランプ大統領は北朝鮮を完全破壊すると主張しており、一触即発の状況が続いている。</t>
   </si>
 </sst>
 </file>
@@ -396,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,11 +520,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -443,11 +537,113 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
